--- a/src/test/resources/testfiles/upload/Product_Category_Mapping.xlsx
+++ b/src/test/resources/testfiles/upload/Product_Category_Mapping.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smehta\eclipse-workspace\sc-qa-taf-workbench\src\test\resources\testfiles\upload\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6AC712-3DEA-47AA-BFA0-B8E145144E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{77C3CE79-7DE5-47EF-9415-5242A7308E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11160" xr2:uid="{E8D4F02D-E62C-4E53-BB1C-A54FFAF37C2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8D4F02D-E62C-4E53-BB1C-A54FFAF37C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Category Mapping" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Category</t>
   </si>
@@ -124,6 +120,78 @@
   </si>
   <si>
     <t>Sub Cat KK 009</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-010</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-011</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-012</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-013</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-014</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-015</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-016</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-017</t>
+  </si>
+  <si>
+    <t>Cat KK 010</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 010</t>
+  </si>
+  <si>
+    <t>Cat KK 011</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 011</t>
+  </si>
+  <si>
+    <t>Cat KK 012</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 012</t>
+  </si>
+  <si>
+    <t>Cat KK 013</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 013</t>
+  </si>
+  <si>
+    <t>Cat KK 014</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 014</t>
+  </si>
+  <si>
+    <t>Cat KK 015</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 015</t>
+  </si>
+  <si>
+    <t>Cat KK 016</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 016</t>
+  </si>
+  <si>
+    <t>Cat KK 017</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 017</t>
   </si>
 </sst>
 </file>
@@ -518,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFDC80E-0399-4B04-A244-BC1C4C37DCE0}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,6 +709,94 @@
         <v>29</v>
       </c>
     </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
